--- a/prod_result_DTX.xlsx
+++ b/prod_result_DTX.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t xml:space="preserve">ANNEE</t>
   </si>
@@ -353,6 +353,54 @@
     <t xml:space="preserve">2021-10-01</t>
   </si>
   <si>
+    <t xml:space="preserve">2022-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">Indicateur_Base</t>
   </si>
   <si>
@@ -525,6 +573,30 @@
   </si>
   <si>
     <t xml:space="preserve">147.758474637966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.197363585561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160.42897057033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.473329049874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.348536281378</t>
   </si>
   <si>
     <t xml:space="preserve">time</t>
@@ -2554,6 +2626,182 @@
         <v>153.424404958945</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1086.56222288586</v>
+      </c>
+      <c r="C106" t="n">
+        <v>148.911907134174</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1128.67743752971</v>
+      </c>
+      <c r="C107" t="n">
+        <v>154.683741272972</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1121.66342401112</v>
+      </c>
+      <c r="C108" t="n">
+        <v>153.72248005137</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1163.61090038726</v>
+      </c>
+      <c r="C109" t="n">
+        <v>159.47132588373</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1134.62400164452</v>
+      </c>
+      <c r="C110" t="n">
+        <v>155.498709973872</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1173.42592840471</v>
+      </c>
+      <c r="C111" t="n">
+        <v>160.81646241606</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1167.84688534618</v>
+      </c>
+      <c r="C112" t="n">
+        <v>160.051861986991</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1206.49728546378</v>
+      </c>
+      <c r="C113" t="n">
+        <v>165.348847904396</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1181.06900006139</v>
+      </c>
+      <c r="C114" t="n">
+        <v>161.863935218618</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1216.87786271158</v>
+      </c>
+      <c r="C115" t="n">
+        <v>166.771492206364</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1212.59510260031</v>
+      </c>
+      <c r="C116" t="n">
+        <v>166.184545630702</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>122</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1248.26708340636</v>
+      </c>
+      <c r="C117" t="n">
+        <v>171.073343143811</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1226.05347727255</v>
+      </c>
+      <c r="C118" t="n">
+        <v>168.028997975131</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1259.15855049025</v>
+      </c>
+      <c r="C119" t="n">
+        <v>172.566004218151</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1256.04678973131</v>
+      </c>
+      <c r="C120" t="n">
+        <v>172.139541545883</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1289.02821050788</v>
+      </c>
+      <c r="C121" t="n">
+        <v>176.659601386348</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2576,27 +2824,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B2" t="n">
         <v>689569</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -2604,13 +2852,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B3" t="n">
         <v>686496</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="D3" t="n">
         <v>-0.445640682803328</v>
@@ -2619,18 +2867,18 @@
         <v>1.35768668041547</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B4" t="n">
         <v>726689.397623859</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D4" t="n">
         <v>5.85486261010395</v>
@@ -2639,18 +2887,18 @@
         <v>1.69781402240843</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B5" t="n">
         <v>597520.331716393</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="D5" t="n">
         <v>-17.7750035062883</v>
@@ -2659,18 +2907,18 @@
         <v>0.203512005441353</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B6" t="n">
         <v>622389.638999423</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="D6" t="n">
         <v>4.162085532988</v>
@@ -2679,18 +2927,18 @@
         <v>-6.10494184339282</v>
       </c>
       <c r="F6" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B7" t="n">
         <v>686246.4756283</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D7" t="n">
         <v>10.2599453184239</v>
@@ -2699,18 +2947,18 @@
         <v>8.35399806344113</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="B8" t="n">
         <v>819599.460200335</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="D8" t="n">
         <v>19.4322286974141</v>
@@ -2719,18 +2967,18 @@
         <v>6.04978742407691</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="B9" t="n">
         <v>870647.252307502</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D9" t="n">
         <v>6.22838283650033</v>
@@ -2739,18 +2987,18 @@
         <v>-5.18109486622648</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="B10" t="n">
         <v>990331.036210717</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="D10" t="n">
         <v>13.7465297898792</v>
@@ -2759,18 +3007,18 @@
         <v>6.06002678826414</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="B11" t="n">
         <v>953417.861233228</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D11" t="n">
         <v>-3.72735717934569</v>
@@ -2779,18 +3027,18 @@
         <v>-0.0911717391667732</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="B12" t="n">
         <v>985081.946349774</v>
       </c>
       <c r="C12" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="D12" t="n">
         <v>3.32111306112821</v>
@@ -2799,18 +3047,18 @@
         <v>11.5348731635496</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B13" t="n">
         <v>1083865.08670058</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="D13" t="n">
         <v>10.0279109486113</v>
@@ -2819,18 +3067,18 @@
         <v>10.5670055982247</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="B14" t="n">
         <v>1118119.07386851</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="D14" t="n">
         <v>3.16035524976743</v>
@@ -2839,18 +3087,18 @@
         <v>6.35593065729985</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B15" t="n">
         <v>1187401.13928192</v>
       </c>
       <c r="C15" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="D15" t="n">
         <v>6.19630476150492</v>
@@ -2859,18 +3107,18 @@
         <v>8.85561560598367</v>
       </c>
       <c r="F15" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="B16" t="n">
         <v>1155632.19264958</v>
       </c>
       <c r="C16" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="D16" t="n">
         <v>-2.67550245501302</v>
@@ -2879,18 +3127,18 @@
         <v>6.69275204554327</v>
       </c>
       <c r="F16" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B17" t="n">
         <v>929833.445325929</v>
       </c>
       <c r="C17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D17" t="n">
         <v>-19.5389803745389</v>
@@ -2899,18 +3147,18 @@
         <v>-3.40275881654358</v>
       </c>
       <c r="F17" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="B18" t="n">
         <v>1403276.87985086</v>
       </c>
       <c r="C18" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="D18" t="n">
         <v>50.9170149670163</v>
@@ -2919,18 +3167,18 @@
         <v>19.3173719166353</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="B19" t="n">
         <v>1590431.29572854</v>
       </c>
       <c r="C19" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="D19" t="n">
         <v>13.3369557045348</v>
@@ -2939,18 +3187,18 @@
         <v>7.53147336083886</v>
       </c>
       <c r="F19" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="B20" t="n">
         <v>1834812.10181881</v>
       </c>
       <c r="C20" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="D20" t="n">
         <v>15.3656939942395</v>
@@ -2959,18 +3207,18 @@
         <v>9.03593370811444</v>
       </c>
       <c r="F20" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B21" t="n">
         <v>1999999.84476316</v>
       </c>
       <c r="C21" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="D21" t="n">
         <v>9.00297871267606</v>
@@ -2979,18 +3227,18 @@
         <v>13.9537440951331</v>
       </c>
       <c r="F21" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B22" t="n">
         <v>2079999.9912061</v>
       </c>
       <c r="C22" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="D22" t="n">
         <v>4.00000763262112</v>
@@ -2999,18 +3247,18 @@
         <v>8.74315765587814</v>
       </c>
       <c r="F22" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B23" t="n">
         <v>2287000.18501475</v>
       </c>
       <c r="C23" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="D23" t="n">
         <v>9.95193243672206</v>
@@ -3019,18 +3267,18 @@
         <v>18.1715183626997</v>
       </c>
       <c r="F23" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B24" t="n">
         <v>2411000.56143489</v>
       </c>
       <c r="C24" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="D24" t="n">
         <v>5.42196617353305</v>
@@ -3039,18 +3287,18 @@
         <v>-3.25957343809267</v>
       </c>
       <c r="F24" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="B25" t="n">
         <v>2714431.08680833</v>
       </c>
       <c r="C25" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="D25" t="n">
         <v>12.5852532026312</v>
@@ -3059,18 +3307,18 @@
         <v>8.59159463788595</v>
       </c>
       <c r="F25" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="B26" t="n">
         <v>2463841.83976921</v>
       </c>
       <c r="C26" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="D26" t="n">
         <v>-9.23174098089795</v>
@@ -3079,18 +3327,18 @@
         <v>2.83012473422362</v>
       </c>
       <c r="F26" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="B27" t="n">
         <v>2719171.11854735</v>
       </c>
       <c r="C27" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="D27" t="n">
         <v>10.3630547487601</v>
@@ -3099,7 +3347,87 @@
         <v>6.44201130294342</v>
       </c>
       <c r="F27" t="s">
-        <v>122</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2838773.95539881</v>
+      </c>
+      <c r="C28" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4.39850350114608</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4.35771211321176</v>
+      </c>
+      <c r="F28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2954526.51451073</v>
+      </c>
+      <c r="C29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4.07755463909969</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.04131876178953</v>
+      </c>
+      <c r="F29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3066800.91883488</v>
+      </c>
+      <c r="C30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3.80008112205918</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.76762280407117</v>
+      </c>
+      <c r="F30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>191</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3175933.32625752</v>
+      </c>
+      <c r="C31" t="s">
+        <v>192</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.55850967542084</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.52921832286057</v>
+      </c>
+      <c r="F31" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3118,22 +3446,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2">
@@ -3632,46 +3960,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2">
@@ -3715,7 +4043,7 @@
         <v>158654.817635095</v>
       </c>
       <c r="N2" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
@@ -3759,7 +4087,7 @@
         <v>167821.263341816</v>
       </c>
       <c r="N3" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4">
@@ -3803,7 +4131,7 @@
         <v>160047.380804539</v>
       </c>
       <c r="N4" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
@@ -3847,7 +4175,7 @@
         <v>199972.53821855</v>
       </c>
       <c r="N5" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6">
@@ -3891,7 +4219,7 @@
         <v>178107.798109578</v>
       </c>
       <c r="N6" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7">
@@ -3935,7 +4263,7 @@
         <v>187000.261748878</v>
       </c>
       <c r="N7" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8">
@@ -3979,7 +4307,7 @@
         <v>169684.37511249</v>
       </c>
       <c r="N8" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9">
@@ -4023,7 +4351,7 @@
         <v>191896.962652913</v>
       </c>
       <c r="N9" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10">
@@ -4067,7 +4395,7 @@
         <v>158175.831126035</v>
       </c>
       <c r="N10" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11">
@@ -4111,7 +4439,7 @@
         <v>154571.484779661</v>
       </c>
       <c r="N11" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12">
@@ -4155,7 +4483,7 @@
         <v>118505.064224788</v>
       </c>
       <c r="N12" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13">
@@ -4199,7 +4527,7 @@
         <v>166267.951585909</v>
       </c>
       <c r="N13" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14">
@@ -4243,7 +4571,7 @@
         <v>155944.468749695</v>
       </c>
       <c r="N14" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15">
@@ -4287,7 +4615,7 @@
         <v>160106.741867422</v>
       </c>
       <c r="N15" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16">
@@ -4331,7 +4659,7 @@
         <v>144390.885428431</v>
       </c>
       <c r="N16" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17">
@@ -4375,7 +4703,7 @@
         <v>161947.542953876</v>
       </c>
       <c r="N17" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18">
@@ -4419,7 +4747,7 @@
         <v>167973.961685313</v>
       </c>
       <c r="N18" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19">
@@ -4463,7 +4791,7 @@
         <v>162974.31556572</v>
       </c>
       <c r="N19" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20">
@@ -4507,7 +4835,7 @@
         <v>146722.845841758</v>
       </c>
       <c r="N20" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21">
@@ -4551,7 +4879,7 @@
         <v>208575.35253551</v>
       </c>
       <c r="N21" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22">
@@ -4595,7 +4923,7 @@
         <v>199940.398847904</v>
       </c>
       <c r="N22" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23">
@@ -4639,7 +4967,7 @@
         <v>199227.696246553</v>
       </c>
       <c r="N23" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24">
@@ -4683,7 +5011,7 @@
         <v>184316.12509789</v>
       </c>
       <c r="N24" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25">
@@ -4727,7 +5055,7 @@
         <v>236115.240007988</v>
       </c>
       <c r="N25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26">
@@ -4771,7 +5099,7 @@
         <v>238096.377786176</v>
       </c>
       <c r="N26" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27">
@@ -4815,7 +5143,7 @@
         <v>201468.945882973</v>
       </c>
       <c r="N27" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28">
@@ -4859,7 +5187,7 @@
         <v>199577.010212969</v>
       </c>
       <c r="N28" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29">
@@ -4903,7 +5231,7 @@
         <v>231504.918425383</v>
       </c>
       <c r="N29" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30">
@@ -4947,7 +5275,7 @@
         <v>270677.112478378</v>
       </c>
       <c r="N30" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
@@ -4991,7 +5319,7 @@
         <v>252428.64582087</v>
       </c>
       <c r="N31" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32">
@@ -5035,7 +5363,7 @@
         <v>218045.357581213</v>
       </c>
       <c r="N32" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33">
@@ -5079,7 +5407,7 @@
         <v>249179.920330255</v>
       </c>
       <c r="N33" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34">
@@ -5123,7 +5451,7 @@
         <v>238339.045259667</v>
       </c>
       <c r="N34" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35">
@@ -5167,7 +5495,7 @@
         <v>237320.457254964</v>
       </c>
       <c r="N35" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36">
@@ -5211,7 +5539,7 @@
         <v>236795.472829922</v>
       </c>
       <c r="N36" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37">
@@ -5255,7 +5583,7 @@
         <v>240962.885888675</v>
       </c>
       <c r="N37" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38">
@@ -5299,7 +5627,7 @@
         <v>236507.411055528</v>
       </c>
       <c r="N38" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39">
@@ -5343,7 +5671,7 @@
         <v>249397.730796964</v>
       </c>
       <c r="N39" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40">
@@ -5387,7 +5715,7 @@
         <v>218886.894317983</v>
       </c>
       <c r="N40" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41">
@@ -5431,7 +5759,7 @@
         <v>280289.910179299</v>
       </c>
       <c r="N41" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42">
@@ -5475,7 +5803,7 @@
         <v>241732.531890198</v>
       </c>
       <c r="N42" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43">
@@ -5519,7 +5847,7 @@
         <v>257937.269663811</v>
       </c>
       <c r="N43" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44">
@@ -5563,7 +5891,7 @@
         <v>246209.247693766</v>
       </c>
       <c r="N44" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45">
@@ -5607,7 +5935,7 @@
         <v>337986.037452801</v>
       </c>
       <c r="N45" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46">
@@ -5651,7 +5979,7 @@
         <v>259632.572763172</v>
       </c>
       <c r="N46" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47">
@@ -5695,7 +6023,7 @@
         <v>288663.408841028</v>
       </c>
       <c r="N47" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48">
@@ -5739,7 +6067,7 @@
         <v>259026.67908275</v>
       </c>
       <c r="N48" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49">
@@ -5783,7 +6111,7 @@
         <v>310796.413181565</v>
       </c>
       <c r="N49" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50">
@@ -5827,7 +6155,7 @@
         <v>265192.721264908</v>
       </c>
       <c r="N50" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51">
@@ -5871,7 +6199,7 @@
         <v>327647.742443118</v>
       </c>
       <c r="N51" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52">
@@ -5915,7 +6243,7 @@
         <v>261021.532910307</v>
       </c>
       <c r="N52" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53">
@@ -5959,7 +6287,7 @@
         <v>333539.142663592</v>
       </c>
       <c r="N53" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54">
@@ -6003,7 +6331,7 @@
         <v>301554.309161687</v>
       </c>
       <c r="N54" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55">
@@ -6047,7 +6375,7 @@
         <v>330762.521670032</v>
       </c>
       <c r="N55" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56">
@@ -6091,7 +6419,7 @@
         <v>258609.221029003</v>
       </c>
       <c r="N56" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57">
@@ -6135,7 +6463,7 @@
         <v>264706.140788862</v>
       </c>
       <c r="N57" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58">
@@ -6179,7 +6507,7 @@
         <v>192007.927311548</v>
       </c>
       <c r="N58" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59">
@@ -6223,7 +6551,7 @@
         <v>190852.261278525</v>
       </c>
       <c r="N59" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60">
@@ -6267,7 +6595,7 @@
         <v>259090.628749773</v>
       </c>
       <c r="N60" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61">
@@ -6311,7 +6639,7 @@
         <v>287882.627986082</v>
       </c>
       <c r="N61" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62">
@@ -6355,7 +6683,7 @@
         <v>310975.104927223</v>
       </c>
       <c r="N62" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63">
@@ -6399,7 +6727,7 @@
         <v>356612.649294288</v>
       </c>
       <c r="N63" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64">
@@ -6443,7 +6771,7 @@
         <v>380108.501352199</v>
       </c>
       <c r="N64" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65">
@@ -6487,7 +6815,7 @@
         <v>355580.624277145</v>
       </c>
       <c r="N65" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66">
@@ -6531,7 +6859,7 @@
         <v>362462.526926157</v>
       </c>
       <c r="N66" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="67">
@@ -6575,7 +6903,7 @@
         <v>407231.592328593</v>
       </c>
       <c r="N67" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68">
@@ -6619,7 +6947,7 @@
         <v>384742.58162518</v>
       </c>
       <c r="N68" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69">
@@ -6663,7 +6991,7 @@
         <v>435994.594848611</v>
       </c>
       <c r="N69" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70">
@@ -6707,7 +7035,7 @@
         <v>409022.776197426</v>
       </c>
       <c r="N70" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
     </row>
     <row r="71">
@@ -6751,7 +7079,7 @@
         <v>495971.758572767</v>
       </c>
       <c r="N71" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
     </row>
     <row r="72">
@@ -6795,7 +7123,7 @@
         <v>438234.966326933</v>
       </c>
       <c r="N72" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="73">
@@ -6839,7 +7167,7 @@
         <v>491582.600721682</v>
       </c>
       <c r="N73" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74">
@@ -6883,7 +7211,7 @@
         <v>470874.164876937</v>
       </c>
       <c r="N74" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75">
@@ -6927,7 +7255,7 @@
         <v>533730.213941581</v>
       </c>
       <c r="N75" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76">
@@ -6971,7 +7299,7 @@
         <v>472042.92241782</v>
       </c>
       <c r="N76" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
     </row>
     <row r="77">
@@ -7015,7 +7343,7 @@
         <v>523352.543526821</v>
       </c>
       <c r="N77" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78">
@@ -7059,7 +7387,7 @@
         <v>535860.767959652</v>
       </c>
       <c r="N78" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79">
@@ -7103,7 +7431,7 @@
         <v>571612.018808721</v>
       </c>
       <c r="N79" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80">
@@ -7147,7 +7475,7 @@
         <v>482977.540757025</v>
       </c>
       <c r="N80" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
     </row>
     <row r="81">
@@ -7191,7 +7519,7 @@
         <v>489549.663680697</v>
       </c>
       <c r="N81" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
     </row>
     <row r="82">
@@ -7235,7 +7563,7 @@
         <v>493040.841714293</v>
       </c>
       <c r="N82" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="83">
@@ -7279,7 +7607,7 @@
         <v>601536.190302235</v>
       </c>
       <c r="N83" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
     </row>
     <row r="84">
@@ -7323,7 +7651,7 @@
         <v>605227.330113188</v>
       </c>
       <c r="N84" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
     </row>
     <row r="85">
@@ -7367,7 +7695,7 @@
         <v>587195.822885035</v>
       </c>
       <c r="N85" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="86">
@@ -7411,7 +7739,7 @@
         <v>538819.220007728</v>
       </c>
       <c r="N86" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87">
@@ -7455,7 +7783,7 @@
         <v>662058.653507599</v>
       </c>
       <c r="N87" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88">
@@ -7499,7 +7827,7 @@
         <v>566596.233293174</v>
       </c>
       <c r="N88" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89">
@@ -7543,7 +7871,7 @@
         <v>643526.454626388</v>
       </c>
       <c r="N89" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
     </row>
     <row r="90">
@@ -7587,7 +7915,7 @@
         <v>645800.872025485</v>
       </c>
       <c r="N90" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="91">
@@ -7631,7 +7959,7 @@
         <v>748632.208670482</v>
       </c>
       <c r="N91" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92">
@@ -7675,7 +8003,7 @@
         <v>653800.76974887</v>
       </c>
       <c r="N92" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
     </row>
     <row r="93">
@@ -7719,7 +8047,7 @@
         <v>666197.236363491</v>
       </c>
       <c r="N93" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
     </row>
     <row r="94">
@@ -7763,7 +8091,7 @@
         <v>627353.64470751</v>
       </c>
       <c r="N94" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
     </row>
     <row r="95">
@@ -7807,7 +8135,7 @@
         <v>534157.287714112</v>
       </c>
       <c r="N95" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
     </row>
     <row r="96">
@@ -7851,7 +8179,7 @@
         <v>627209.358857626</v>
       </c>
       <c r="N96" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="97">
@@ -7895,7 +8223,7 @@
         <v>675121.548489963</v>
       </c>
       <c r="N97" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -7914,37 +8242,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2">
@@ -8095,7 +8423,7 @@
         <v>12.2611974627988</v>
       </c>
       <c r="K6" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7">
@@ -8130,7 +8458,7 @@
         <v>11.4282290724981</v>
       </c>
       <c r="K7" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8">
@@ -8165,7 +8493,7 @@
         <v>6.02133834337508</v>
       </c>
       <c r="K8" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9">
@@ -8200,7 +8528,7 @@
         <v>-4.0383422831846</v>
       </c>
       <c r="K9" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10">
@@ -8235,7 +8563,7 @@
         <v>-11.1909569345637</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11">
@@ -8270,7 +8598,7 @@
         <v>-17.3415676886941</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
@@ -8305,7 +8633,7 @@
         <v>-30.1614753001116</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
@@ -8340,7 +8668,7 @@
         <v>-13.3556105905437</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
@@ -8375,7 +8703,7 @@
         <v>-1.41068478063656</v>
       </c>
       <c r="K14" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
@@ -8410,7 +8738,7 @@
         <v>3.58103378229855</v>
       </c>
       <c r="K15" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16">
@@ -8445,7 +8773,7 @@
         <v>21.8436413439186</v>
       </c>
       <c r="K16" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17">
@@ -8480,7 +8808,7 @@
         <v>-2.59846145383021</v>
       </c>
       <c r="K17" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18">
@@ -8515,7 +8843,7 @@
         <v>7.71395935493313</v>
       </c>
       <c r="K18" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19">
@@ -8550,7 +8878,7 @@
         <v>1.79103869384374</v>
       </c>
       <c r="K19" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20">
@@ -8585,7 +8913,7 @@
         <v>1.61503297552865</v>
       </c>
       <c r="K20" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21">
@@ -8620,7 +8948,7 @@
         <v>28.7919215884082</v>
       </c>
       <c r="K21" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22">
@@ -8655,7 +8983,7 @@
         <v>19.0305907188626</v>
       </c>
       <c r="K22" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23">
@@ -8690,7 +9018,7 @@
         <v>22.2448430324678</v>
       </c>
       <c r="K23" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24">
@@ -8725,7 +9053,7 @@
         <v>25.6219670770818</v>
       </c>
       <c r="K24" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25">
@@ -8760,7 +9088,7 @@
         <v>13.2038072273137</v>
       </c>
       <c r="K25" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26">
@@ -8795,7 +9123,7 @@
         <v>19.083676514669</v>
       </c>
       <c r="K26" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27">
@@ -8830,7 +9158,7 @@
         <v>1.1249689067564</v>
       </c>
       <c r="K27" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28">
@@ -8865,7 +9193,7 @@
         <v>8.27973412905349</v>
       </c>
       <c r="K28" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29">
@@ -8900,7 +9228,7 @@
         <v>-1.95257264310836</v>
       </c>
       <c r="K29" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30">
@@ -8935,7 +9263,7 @@
         <v>13.6838430702466</v>
       </c>
       <c r="K30" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31">
@@ -8970,7 +9298,7 @@
         <v>25.2940718553704</v>
       </c>
       <c r="K31" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32">
@@ -9005,7 +9333,7 @@
         <v>9.25374488200648</v>
       </c>
       <c r="K32" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33">
@@ -9040,7 +9368,7 @@
         <v>7.63482781493019</v>
       </c>
       <c r="K33" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34">
@@ -9075,7 +9403,7 @@
         <v>-11.9471007070441</v>
       </c>
       <c r="K34" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35">
@@ -9110,7 +9438,7 @@
         <v>-5.98513235959264</v>
       </c>
       <c r="K35" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36">
@@ -9145,7 +9473,7 @@
         <v>8.59918113217553</v>
       </c>
       <c r="K36" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37">
@@ -9180,7 +9508,7 @@
         <v>-3.29763105738582</v>
       </c>
       <c r="K37" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38">
@@ -9215,7 +9543,7 @@
         <v>-0.768499429937475</v>
       </c>
       <c r="K38" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39">
@@ -9250,7 +9578,7 @@
         <v>5.08901494700273</v>
       </c>
       <c r="K39" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40">
@@ -9285,7 +9613,7 @@
         <v>-7.56288889222215</v>
       </c>
       <c r="K40" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41">
@@ -9320,7 +9648,7 @@
         <v>16.320780748282</v>
       </c>
       <c r="K41" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42">
@@ -9355,7 +9683,7 @@
         <v>2.20928418748061</v>
       </c>
       <c r="K42" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43">
@@ -9390,7 +9718,7 @@
         <v>3.42406438084208</v>
       </c>
       <c r="K43" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44">
@@ -9425,7 +9753,7 @@
         <v>12.4824071632592</v>
       </c>
       <c r="K44" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45">
@@ -9460,7 +9788,7 @@
         <v>20.5844467382342</v>
       </c>
       <c r="K45" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46">
@@ -9495,7 +9823,7 @@
         <v>7.40489529191899</v>
       </c>
       <c r="K46" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47">
@@ -9530,7 +9858,7 @@
         <v>11.9122526253242</v>
       </c>
       <c r="K47" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48">
@@ -9565,7 +9893,7 @@
         <v>5.20590981412925</v>
       </c>
       <c r="K48" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49">
@@ -9600,7 +9928,7 @@
         <v>-8.04459985274788</v>
       </c>
       <c r="K49" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50">
@@ -9635,7 +9963,7 @@
         <v>2.14154504674098</v>
       </c>
       <c r="K50" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51">
@@ -9670,7 +9998,7 @@
         <v>13.505117866726</v>
       </c>
       <c r="K51" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52">
@@ -9705,7 +10033,7 @@
         <v>0.770134502986775</v>
       </c>
       <c r="K52" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53">
@@ -9740,7 +10068,7 @@
         <v>7.31756497741192</v>
       </c>
       <c r="K53" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54">
@@ -9775,7 +10103,7 @@
         <v>13.7113823197496</v>
       </c>
       <c r="K54" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55">
@@ -9810,7 +10138,7 @@
         <v>0.950648767999573</v>
       </c>
       <c r="K55" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56">
@@ -9845,7 +10173,7 @@
         <v>-0.924181179386874</v>
       </c>
       <c r="K56" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57">
@@ -9880,7 +10208,7 @@
         <v>-20.6371586030474</v>
       </c>
       <c r="K57" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58">
@@ -9915,7 +10243,7 @@
         <v>-36.3272480352462</v>
       </c>
       <c r="K58" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59">
@@ -9950,7 +10278,7 @@
         <v>-42.2993087865865</v>
       </c>
       <c r="K59" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60">
@@ -9985,7 +10313,7 @@
         <v>0.186152573699672</v>
       </c>
       <c r="K60" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61">
@@ -10020,7 +10348,7 @@
         <v>8.75555328189646</v>
       </c>
       <c r="K61" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62">
@@ -10055,7 +10383,7 @@
         <v>61.9595134854208</v>
       </c>
       <c r="K62" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63">
@@ -10090,7 +10418,7 @@
         <v>86.8527241465881</v>
       </c>
       <c r="K63" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64">
@@ -10125,7 +10453,7 @@
         <v>46.7087031230696</v>
       </c>
       <c r="K64" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65">
@@ -10160,7 +10488,7 @@
         <v>23.5158323948381</v>
       </c>
       <c r="K65" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66">
@@ -10195,7 +10523,7 @@
         <v>16.5567665009659</v>
       </c>
       <c r="K66" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67">
@@ -10230,7 +10558,7 @@
         <v>14.1943767655119</v>
       </c>
       <c r="K67" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68">
@@ -10265,7 +10593,7 @@
         <v>1.21914670587369</v>
       </c>
       <c r="K68" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69">
@@ -10300,7 +10628,7 @@
         <v>22.6148347466736</v>
       </c>
       <c r="K69" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70">
@@ -10335,7 +10663,7 @@
         <v>12.8455345897741</v>
       </c>
       <c r="K70" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71">
@@ -10370,7 +10698,7 @@
         <v>21.791081025111</v>
       </c>
       <c r="K71" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72">
@@ -10405,7 +10733,7 @@
         <v>13.9034219908276</v>
       </c>
       <c r="K72" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73">
@@ -10440,7 +10768,7 @@
         <v>12.7497006912143</v>
       </c>
       <c r="K73" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74">
@@ -10475,7 +10803,7 @@
         <v>15.1217468265525</v>
       </c>
       <c r="K74" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75">
@@ -10510,7 +10838,7 @@
         <v>7.61302528141323</v>
       </c>
       <c r="K75" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76">
@@ -10545,7 +10873,7 @@
         <v>7.71457293201603</v>
       </c>
       <c r="K76" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77">
@@ -10580,7 +10908,7 @@
         <v>6.46278830017541</v>
       </c>
       <c r="K77" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78">
@@ -10615,7 +10943,7 @@
         <v>13.8012674999273</v>
       </c>
       <c r="K78" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79">
@@ -10650,7 +10978,7 @@
         <v>7.09755675763311</v>
       </c>
       <c r="K79" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80">
@@ -10685,7 +11013,7 @@
         <v>2.31644577641319</v>
       </c>
       <c r="K80" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81">
@@ -10720,7 +11048,7 @@
         <v>-6.45891192547365</v>
       </c>
       <c r="K81" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82">
@@ -10755,7 +11083,7 @@
         <v>-7.99086792795097</v>
       </c>
       <c r="K82" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83">
@@ -10790,7 +11118,7 @@
         <v>5.2350493881983</v>
       </c>
       <c r="K83" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84">
@@ -10825,7 +11153,7 @@
         <v>25.3116923748768</v>
       </c>
       <c r="K84" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85">
@@ -10860,7 +11188,7 @@
         <v>19.9461191475817</v>
       </c>
       <c r="K85" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86">
@@ -10895,7 +11223,7 @@
         <v>9.28490591859794</v>
       </c>
       <c r="K86" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87">
@@ -10930,7 +11258,7 @@
         <v>10.0613170381244</v>
       </c>
       <c r="K87" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88">
@@ -10965,7 +11293,7 @@
         <v>-6.38290686786884</v>
       </c>
       <c r="K88" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89">
@@ -11000,7 +11328,7 @@
         <v>9.59315947865351</v>
       </c>
       <c r="K89" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90">
@@ -11035,7 +11363,7 @@
         <v>19.8548322044307</v>
       </c>
       <c r="K90" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91">
@@ -11070,7 +11398,7 @@
         <v>13.0764177319057</v>
       </c>
       <c r="K91" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92">
@@ -11105,7 +11433,7 @@
         <v>15.3909488506207</v>
       </c>
       <c r="K92" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93">
@@ -11140,7 +11468,7 @@
         <v>3.52289817677589</v>
       </c>
       <c r="K93" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94">
@@ -11175,7 +11503,7 @@
         <v>-2.85648844977832</v>
       </c>
       <c r="K94" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95">
@@ -11210,7 +11538,7 @@
         <v>-28.6489037570615</v>
       </c>
       <c r="K95" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96">
@@ -11245,7 +11573,7 @@
         <v>-4.06720397430215</v>
       </c>
       <c r="K96" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97">
@@ -11280,7 +11608,7 @@
         <v>1.33959008524052</v>
       </c>
       <c r="K97" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98">
@@ -11315,7 +11643,7 @@
         <v>4.1553563884992</v>
       </c>
       <c r="K98" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99">
@@ -11350,7 +11678,7 @@
         <v>27.7825376759161</v>
       </c>
       <c r="K99" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100">
@@ -11385,7 +11713,7 @@
         <v>7.95197793521596</v>
       </c>
       <c r="K100" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101">
@@ -11420,7 +11748,567 @@
         <v>4.58917354390629</v>
       </c>
       <c r="K101" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" t="n">
+        <v>685149.053047744</v>
+      </c>
+      <c r="C102" t="n">
+        <v>692555.335208627</v>
+      </c>
+      <c r="D102" t="n">
+        <v>685149.053047744</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>37.2279767835435</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-146501.204705833</v>
+      </c>
+      <c r="H102" t="n">
+        <v>18603.0881891698</v>
+      </c>
+      <c r="I102" t="n">
+        <v>4.80862566808695</v>
+      </c>
+      <c r="J102" t="n">
+        <v>4.85545451130682</v>
+      </c>
+      <c r="K102" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103" t="n">
+        <v>711952.114199086</v>
+      </c>
+      <c r="C103" t="n">
+        <v>686889.716760687</v>
+      </c>
+      <c r="D103" t="n">
+        <v>711952.114199086</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>38.6709353182431</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-146501.204705833</v>
+      </c>
+      <c r="H103" t="n">
+        <v>17762.4283226645</v>
+      </c>
+      <c r="I103" t="n">
+        <v>4.26642347843802</v>
+      </c>
+      <c r="J103" t="n">
+        <v>4.30619844178988</v>
+      </c>
+      <c r="K103" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" t="n">
+        <v>707488.239686158</v>
+      </c>
+      <c r="C104" t="n">
+        <v>669690.251591192</v>
+      </c>
+      <c r="D104" t="n">
+        <v>707488.239686158</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>38.4306200128425</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-146501.204705833</v>
+      </c>
+      <c r="H104" t="n">
+        <v>17425.9549121872</v>
+      </c>
+      <c r="I104" t="n">
+        <v>4.44851971939908</v>
+      </c>
+      <c r="J104" t="n">
+        <v>4.49032767009454</v>
+      </c>
+      <c r="K104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" t="n">
+        <v>734184.548465822</v>
+      </c>
+      <c r="C105" t="n">
+        <v>689654.457620217</v>
+      </c>
+      <c r="D105" t="n">
+        <v>734184.548465822</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>39.8678314709324</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-146501.204705833</v>
+      </c>
+      <c r="H105" t="n">
+        <v>17298.5194372321</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3.94130316255941</v>
+      </c>
+      <c r="J105" t="n">
+        <v>3.97682190940287</v>
+      </c>
+      <c r="K105" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" t="n">
+        <v>715736.640122968</v>
+      </c>
+      <c r="C106" t="n">
+        <v>723189.05373652</v>
+      </c>
+      <c r="D106" t="n">
+        <v>715736.640122968</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>38.8746774934679</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-146501.204705833</v>
+      </c>
+      <c r="H106" t="n">
+        <v>18603.0881891698</v>
+      </c>
+      <c r="I106" t="n">
+        <v>4.42328821547013</v>
+      </c>
+      <c r="J106" t="n">
+        <v>4.46436975124769</v>
+      </c>
+      <c r="K106" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107" t="n">
+        <v>740431.051027391</v>
+      </c>
+      <c r="C107" t="n">
+        <v>714122.721692433</v>
+      </c>
+      <c r="D107" t="n">
+        <v>740431.051027391</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>40.204115604015</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-146501.204705833</v>
+      </c>
+      <c r="H107" t="n">
+        <v>17762.4283226645</v>
+      </c>
+      <c r="I107" t="n">
+        <v>3.96468374285379</v>
+      </c>
+      <c r="J107" t="n">
+        <v>4.00011970753722</v>
+      </c>
+      <c r="K107" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108" t="n">
+        <v>736880.423694059</v>
+      </c>
+      <c r="C108" t="n">
+        <v>697264.132649229</v>
+      </c>
+      <c r="D108" t="n">
+        <v>736880.423694059</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>40.0129654967477</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-146501.204705833</v>
+      </c>
+      <c r="H108" t="n">
+        <v>17425.9549121872</v>
+      </c>
+      <c r="I108" t="n">
+        <v>4.11740815884962</v>
+      </c>
+      <c r="J108" t="n">
+        <v>4.15444135452185</v>
+      </c>
+      <c r="K108" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>118</v>
+      </c>
+      <c r="B109" t="n">
+        <v>761478.399666311</v>
+      </c>
+      <c r="C109" t="n">
+        <v>715072.56484953</v>
+      </c>
+      <c r="D109" t="n">
+        <v>761478.399666311</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>41.3372119760989</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-146501.204705833</v>
+      </c>
+      <c r="H109" t="n">
+        <v>17298.5194372321</v>
+      </c>
+      <c r="I109" t="n">
+        <v>3.68562936822341</v>
+      </c>
+      <c r="J109" t="n">
+        <v>3.71757363424803</v>
+      </c>
+      <c r="K109" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
         <v>119</v>
+      </c>
+      <c r="B110" t="n">
+        <v>745295.272158177</v>
+      </c>
+      <c r="C110" t="n">
+        <v>752792.265379507</v>
+      </c>
+      <c r="D110" t="n">
+        <v>745295.272158177</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>40.4659838046546</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-146501.204705833</v>
+      </c>
+      <c r="H110" t="n">
+        <v>18603.0881891698</v>
+      </c>
+      <c r="I110" t="n">
+        <v>4.09342639936763</v>
+      </c>
+      <c r="J110" t="n">
+        <v>4.12981959818781</v>
+      </c>
+      <c r="K110" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>120</v>
+      </c>
+      <c r="B111" t="n">
+        <v>768084.830361531</v>
+      </c>
+      <c r="C111" t="n">
+        <v>740566.669144836</v>
+      </c>
+      <c r="D111" t="n">
+        <v>768084.830361531</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>41.6928730515911</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-146501.204705833</v>
+      </c>
+      <c r="H111" t="n">
+        <v>17762.4283226645</v>
+      </c>
+      <c r="I111" t="n">
+        <v>3.70299762899755</v>
+      </c>
+      <c r="J111" t="n">
+        <v>3.734821668509</v>
+      </c>
+      <c r="K111" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" t="n">
+        <v>765359.186383944</v>
+      </c>
+      <c r="C112" t="n">
+        <v>723981.099815733</v>
+      </c>
+      <c r="D112" t="n">
+        <v>765359.186383944</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>41.5461364076755</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-146501.204705833</v>
+      </c>
+      <c r="H112" t="n">
+        <v>17425.9549121872</v>
+      </c>
+      <c r="I112" t="n">
+        <v>3.83168528474205</v>
+      </c>
+      <c r="J112" t="n">
+        <v>3.86477395438438</v>
+      </c>
+      <c r="K112" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113" t="n">
+        <v>788061.629931232</v>
+      </c>
+      <c r="C113" t="n">
+        <v>739828.887891372</v>
+      </c>
+      <c r="D113" t="n">
+        <v>788061.629931232</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>42.7683357859527</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-146501.204705833</v>
+      </c>
+      <c r="H113" t="n">
+        <v>17298.5194372321</v>
+      </c>
+      <c r="I113" t="n">
+        <v>3.46207143984774</v>
+      </c>
+      <c r="J113" t="n">
+        <v>3.49100253882053</v>
+      </c>
+      <c r="K113" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" t="n">
+        <v>773924.395949848</v>
+      </c>
+      <c r="C114" t="n">
+        <v>781464.566917298</v>
+      </c>
+      <c r="D114" t="n">
+        <v>773924.395949848</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>42.0072494937826</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-146501.204705833</v>
+      </c>
+      <c r="H114" t="n">
+        <v>18603.0881891698</v>
+      </c>
+      <c r="I114" t="n">
+        <v>3.80879332272848</v>
+      </c>
+      <c r="J114" t="n">
+        <v>3.84131294819148</v>
+      </c>
+      <c r="K114" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>124</v>
+      </c>
+      <c r="B115" t="n">
+        <v>794993.202303494</v>
+      </c>
+      <c r="C115" t="n">
+        <v>766297.820213383</v>
+      </c>
+      <c r="D115" t="n">
+        <v>794993.202303494</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>43.1415010545378</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-146501.204705833</v>
+      </c>
+      <c r="H115" t="n">
+        <v>17762.4283226645</v>
+      </c>
+      <c r="I115" t="n">
+        <v>3.474521895275</v>
+      </c>
+      <c r="J115" t="n">
+        <v>3.50330730126478</v>
+      </c>
+      <c r="K115" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>125</v>
+      </c>
+      <c r="B116" t="n">
+        <v>793012.808409853</v>
+      </c>
+      <c r="C116" t="n">
+        <v>749923.972395782</v>
+      </c>
+      <c r="D116" t="n">
+        <v>793012.808409853</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>43.0348853864706</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-146501.204705833</v>
+      </c>
+      <c r="H116" t="n">
+        <v>17425.9549121872</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3.58336323788724</v>
+      </c>
+      <c r="J116" t="n">
+        <v>3.61315608643342</v>
+      </c>
+      <c r="K116" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117" t="n">
+        <v>814002.919594324</v>
+      </c>
+      <c r="C117" t="n">
+        <v>763987.387088852</v>
+      </c>
+      <c r="D117" t="n">
+        <v>814002.919594324</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>44.1649003465869</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-146501.204705833</v>
+      </c>
+      <c r="H117" t="n">
+        <v>17298.5194372321</v>
+      </c>
+      <c r="I117" t="n">
+        <v>3.26541712453752</v>
+      </c>
+      <c r="J117" t="n">
+        <v>3.29178438307627</v>
+      </c>
+      <c r="K117" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -11439,10 +12327,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
@@ -12243,6 +13131,134 @@
       </c>
       <c r="B101" t="n">
         <v>663503.762832018</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" t="n">
+        <v>692555.335208627</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103" t="n">
+        <v>686889.716760687</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" t="n">
+        <v>669690.251591192</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" t="n">
+        <v>689654.457620217</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" t="n">
+        <v>723189.05373652</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107" t="n">
+        <v>714122.721692433</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108" t="n">
+        <v>697264.132649229</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>118</v>
+      </c>
+      <c r="B109" t="n">
+        <v>715072.56484953</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>119</v>
+      </c>
+      <c r="B110" t="n">
+        <v>752792.265379507</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>120</v>
+      </c>
+      <c r="B111" t="n">
+        <v>740566.669144836</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" t="n">
+        <v>723981.099815733</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113" t="n">
+        <v>739828.887891372</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" t="n">
+        <v>781464.566917298</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>124</v>
+      </c>
+      <c r="B115" t="n">
+        <v>766297.820213383</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>125</v>
+      </c>
+      <c r="B116" t="n">
+        <v>749923.972395782</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117" t="n">
+        <v>763987.387088852</v>
       </c>
     </row>
   </sheetData>
